--- a/checktool_v1.0/Template_22.xlsx
+++ b/checktool_v1.0/Template_22.xlsx
@@ -206,9 +206,6 @@
     <t>Zero Amount Authorized is supported</t>
   </si>
   <si>
-    <t>Check Box95</t>
-  </si>
-  <si>
     <t>Must be checked when 3.15 is checked</t>
   </si>
   <si>
@@ -377,6 +374,9 @@
   </si>
   <si>
     <t>Check Box51</t>
+  </si>
+  <si>
+    <t>Check Box95</t>
   </si>
   <si>
     <t>6. General Reader Options</t>
@@ -655,9 +655,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -703,29 +703,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -734,7 +711,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,7 +719,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,7 +733,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,9 +749,24 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -794,29 +786,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -832,16 +801,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -874,7 +874,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,7 +886,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,7 +946,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,19 +982,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,121 +1042,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,50 +1067,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,6 +1101,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1159,148 +1148,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1782,8 +1782,8 @@
   </sheetPr>
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2179,10 +2179,10 @@
         <v>61</v>
       </c>
       <c r="E22" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="G22" s="22"/>
     </row>
@@ -2196,10 +2196,10 @@
         <v>3.15</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>64</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>65</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="22"/>
@@ -2214,10 +2214,10 @@
         <v>3.16</v>
       </c>
       <c r="D24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>66</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>67</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="22"/>
@@ -2232,10 +2232,10 @@
         <v>3.17</v>
       </c>
       <c r="D25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>68</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>69</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="22"/>
@@ -2250,10 +2250,10 @@
         <v>3.19</v>
       </c>
       <c r="D26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>71</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="22"/>
@@ -2268,10 +2268,10 @@
         <v>3.2</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>72</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>73</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="22"/>
@@ -2286,10 +2286,10 @@
         <v>3.21</v>
       </c>
       <c r="D28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="21" t="s">
         <v>74</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>75</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="22"/>
@@ -2304,10 +2304,10 @@
         <v>3.22</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="21" t="s">
         <v>76</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>77</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="22"/>
@@ -2319,16 +2319,16 @@
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="E30" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>80</v>
       </c>
       <c r="G30" s="22"/>
     </row>
@@ -2342,10 +2342,10 @@
         <v>3.23</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="21" t="s">
         <v>81</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>82</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="22"/>
@@ -2360,7 +2360,7 @@
         <v>3.25</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>54</v>
@@ -2378,10 +2378,10 @@
         <v>3.26</v>
       </c>
       <c r="D33" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>85</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="22"/>
@@ -2396,10 +2396,10 @@
         <v>3.27</v>
       </c>
       <c r="D34" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="21" t="s">
         <v>86</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>87</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="22"/>
@@ -2414,10 +2414,10 @@
         <v>3.28</v>
       </c>
       <c r="D35" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>89</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="22"/>
@@ -2432,10 +2432,10 @@
         <v>3.29</v>
       </c>
       <c r="D36" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="21" t="s">
         <v>90</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>91</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="22"/>
@@ -2443,7 +2443,7 @@
     <row r="37" ht="28" spans="1:7">
       <c r="A37" s="9"/>
       <c r="B37" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="13"/>
@@ -2461,13 +2461,13 @@
         <v>4.1</v>
       </c>
       <c r="D38" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="F38" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>95</v>
       </c>
       <c r="G38" s="22"/>
     </row>
@@ -2478,13 +2478,13 @@
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="E39" s="21" t="s">
         <v>97</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>98</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="22"/>
@@ -2496,13 +2496,13 @@
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="E40" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>101</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="22"/>
@@ -2517,13 +2517,13 @@
         <v>4.2</v>
       </c>
       <c r="D41" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="F41" s="17" t="s">
         <v>103</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>104</v>
       </c>
       <c r="G41" s="22"/>
     </row>
@@ -2534,13 +2534,13 @@
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="E42" s="21" t="s">
         <v>106</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>107</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="22"/>
@@ -2552,26 +2552,26 @@
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="E43" s="21" t="s">
         <v>109</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>110</v>
       </c>
       <c r="F43" s="14"/>
       <c r="G43" s="22"/>
     </row>
     <row r="44" ht="39" spans="2:7">
       <c r="B44" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G44"/>
     </row>
@@ -2585,10 +2585,10 @@
         <v>5.1</v>
       </c>
       <c r="D45" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="21" t="s">
         <v>113</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>114</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="22"/>
@@ -2603,10 +2603,10 @@
         <v>5.2</v>
       </c>
       <c r="D46" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="21" t="s">
         <v>115</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>116</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="22"/>
@@ -2621,10 +2621,10 @@
         <v>5.3</v>
       </c>
       <c r="D47" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>118</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="22"/>
@@ -2642,7 +2642,7 @@
         <v>61</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="22"/>
